--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_KimLong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -243,20 +243,44 @@
     <t>Thiết bị lỗi nguồn</t>
   </si>
   <si>
-    <t>Xử lý phần cứng</t>
-  </si>
-  <si>
     <t>125.212.203.114,15757</t>
   </si>
   <si>
     <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn, hỏng module GSM</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>ID mới : 868183033791398</t>
+  </si>
+  <si>
+    <t>ID mới : 21060006</t>
+  </si>
+  <si>
+    <t>ID mới : 21060003</t>
+  </si>
+  <si>
+    <t>ID mới : 21060008</t>
+  </si>
+  <si>
+    <t>ID mới : 21060025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +353,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -649,9 +685,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,20 +724,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,43 +1069,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1108,58 +1150,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1184,23 +1226,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,7 +1252,9 @@
       <c r="B6" s="37">
         <v>44480</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44482</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1221,19 +1265,21 @@
       <c r="G6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="38" t="s">
+        <v>75</v>
+      </c>
       <c r="I6" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="52" t="s">
         <v>70</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>71</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -1243,14 +1289,14 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1281,7 +1327,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1310,7 +1356,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1339,7 +1385,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1368,7 +1414,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1397,7 +1443,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1426,7 +1472,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1457,7 +1503,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1486,7 +1532,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1515,7 +1561,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1544,7 +1590,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1663,7 +1709,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1695,7 +1741,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1940,7 +1986,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2132,7 +2178,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2775,13 +2821,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2793,6 +2832,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2803,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2836,43 +2882,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2917,58 +2963,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -2993,23 +3039,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3019,7 +3065,9 @@
       <c r="B6" s="37">
         <v>44480</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44482</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>57</v>
       </c>
@@ -3030,28 +3078,34 @@
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="79" t="s">
+        <v>76</v>
+      </c>
       <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K6" s="52"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3066,7 +3120,9 @@
       <c r="B7" s="37">
         <v>44480</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44482</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>57</v>
       </c>
@@ -3077,20 +3133,34 @@
       <c r="G7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="80" t="s">
+        <v>77</v>
+      </c>
       <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="52"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3103,7 +3173,9 @@
       <c r="B8" s="37">
         <v>44480</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44482</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>57</v>
       </c>
@@ -3114,20 +3186,34 @@
       <c r="G8" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="80" t="s">
+        <v>78</v>
+      </c>
       <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="52"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3137,26 +3223,50 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="37">
+        <v>44480</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44482</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="52"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3185,7 +3295,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3214,7 +3324,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3243,7 +3353,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3274,7 +3384,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3303,7 +3413,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3332,7 +3442,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3361,7 +3471,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3480,7 +3590,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3512,7 +3622,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3757,7 +3867,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -3949,7 +4059,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4013,7 +4123,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4099,7 +4209,7 @@
       </c>
       <c r="V40" s="10">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W40" s="14"/>
     </row>
@@ -4592,13 +4702,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4610,6 +4713,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4653,43 +4763,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4734,58 +4844,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4810,23 +4920,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4852,7 +4962,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4883,7 +4993,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4912,7 +5022,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4941,7 +5051,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4970,7 +5080,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4999,7 +5109,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5028,7 +5138,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5059,7 +5169,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5088,7 +5198,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5117,7 +5227,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5146,7 +5256,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6377,13 +6487,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6395,6 +6498,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
